--- a/src/test/resources/Exceldata/Apollo_dataa.xlsx
+++ b/src/test/resources/Exceldata/Apollo_dataa.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{605F4C47-42B8-46E4-B006-767DA55F7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,27 +466,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -521,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>6379948639</v>
       </c>
@@ -547,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>12345567</v>
       </c>
@@ -573,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6">
@@ -585,7 +576,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -597,7 +588,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">

--- a/src/test/resources/Exceldata/Apollo_dataa.xlsx
+++ b/src/test/resources/Exceldata/Apollo_dataa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{605F4C47-42B8-46E4-B006-767DA55F7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A271D23-3FDC-4D14-BC2E-291D5AD23B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>6379948639</v>
       </c>
       <c r="B2" s="5">
-        <v>600003</v>
+        <v>600006</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
